--- a/KED.xlsx
+++ b/KED.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmiddelhove/Documents/Productiveness/MHP/ChargingManagement/FleetChargingManagement/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DFD90-8E0B-4242-B694-827E5A598B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20835" yWindow="465" windowWidth="36435" windowHeight="16470"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>End_SoC</t>
   </si>
@@ -35,12 +41,15 @@
   </si>
   <si>
     <t>Standzeit</t>
+  </si>
+  <si>
+    <t>Daten wurden aus Datenschutzgründen entfernt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -67,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,16 +99,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,19 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -435,52 +456,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>43707.465891203698</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43711.424849537027</v>
-      </c>
-      <c r="C2">
-        <v>87.8</v>
-      </c>
-      <c r="D2">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>-1.2000000000000031</v>
-      </c>
-      <c r="F2">
-        <v>-19</v>
-      </c>
-      <c r="G2">
-        <v>20.716666666666669</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>43719.508067129631</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43719.549571759257</v>
-      </c>
-      <c r="C3">
-        <v>95.5</v>
-      </c>
-      <c r="D3">
-        <v>85.65</v>
-      </c>
-      <c r="E3">
-        <v>9.8499999999999943</v>
-      </c>
-      <c r="F3">
-        <v>-21</v>
-      </c>
-      <c r="G3">
-        <v>12.18333333333333</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
